--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{73B4C021-12CF-4E39-AB7A-B8CCEF710D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{730A7EBE-EC9A-4E3B-BFF7-841A2643D832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="python DS" sheetId="1" r:id="rId1"/>
@@ -15,26 +15,17 @@
     <sheet name="LinkedList" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R13"/>
+  <oleSize ref="A1:O10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>Code</t>
   </si>
@@ -170,6 +161,24 @@
   </si>
   <si>
     <t>the user is able to see the output in the console</t>
+  </si>
+  <si>
+    <t>You are logged in</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>Invalid Username and Password</t>
+  </si>
+  <si>
+    <t>Please fill out this field.</t>
+  </si>
+  <si>
+    <t>password_mismatch:The two password fields didn’t match.</t>
+  </si>
+  <si>
+    <t>New Account Created. You are logged in as Ninjasquad</t>
   </si>
 </sst>
 </file>
@@ -581,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F542CB85-55EF-446C-96FE-6338DCB949D1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -697,10 +706,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D74351-1698-4E40-8D8A-DE82F9A08259}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,54 +719,80 @@
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -774,10 +809,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC47661-1FB8-408C-ACB6-62810351C78A}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,9 +820,10 @@
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -797,13 +833,24 @@
       <c r="C1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>22</v>
@@ -811,8 +858,11 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -822,8 +872,11 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -833,8 +886,11 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -844,8 +900,11 @@
       <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -855,8 +914,11 @@
       <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -865,6 +927,9 @@
       </c>
       <c r="C9" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{730A7EBE-EC9A-4E3B-BFF7-841A2643D832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1F455E17-C5B2-46FA-B26D-55A03271BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="python DS" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="LinkedList" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O10"/>
+  <oleSize ref="A1:T17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D74351-1698-4E40-8D8A-DE82F9A08259}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC47661-1FB8-408C-ACB6-62810351C78A}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1F455E17-C5B2-46FA-B26D-55A03271BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1332eb67554a452f/Documents/DsAlgoTestNG/src/test/resources/Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:801_{1F455E17-C5B2-46FA-B26D-55A03271BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E65A6E7F-3421-4053-BF5F-2C68DCBDF56D}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
+    <workbookView xWindow="6291" yWindow="3026" windowWidth="26623" windowHeight="10551" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="python DS" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,6 @@
     <sheet name="LinkedList" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:T17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>Code</t>
   </si>
@@ -157,12 +161,6 @@
     <t>expected Outcome</t>
   </si>
   <si>
-    <t>popup error message containing Syntaxerror</t>
-  </si>
-  <si>
-    <t>the user is able to see the output in the console</t>
-  </si>
-  <si>
     <t>You are logged in</t>
   </si>
   <si>
@@ -179,6 +177,9 @@
   </si>
   <si>
     <t>New Account Created. You are logged in as Ninjasquad</t>
+  </si>
+  <si>
+    <t>popup error message</t>
   </si>
 </sst>
 </file>
@@ -590,17 +591,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F542CB85-55EF-446C-96FE-6338DCB949D1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.3828125" customWidth="1"/>
+    <col min="2" max="2" width="43.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,20 +609,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -634,16 +635,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="227.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="118.3828125" customWidth="1"/>
+    <col min="2" max="2" width="33.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -659,7 +660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -667,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -675,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -683,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -691,7 +692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -708,18 +709,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D74351-1698-4E40-8D8A-DE82F9A08259}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.15234375" customWidth="1"/>
+    <col min="2" max="2" width="16.3046875" customWidth="1"/>
+    <col min="3" max="3" width="30.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -727,31 +728,31 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -759,10 +760,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -770,10 +771,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -781,10 +782,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -792,7 +793,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -815,15 +816,15 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.84375" customWidth="1"/>
+    <col min="2" max="2" width="18.3828125" customWidth="1"/>
+    <col min="3" max="3" width="15.53515625" customWidth="1"/>
+    <col min="4" max="4" width="56.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -834,23 +835,23 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>22</v>
@@ -859,10 +860,10 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -873,10 +874,10 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -887,10 +888,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -901,10 +902,10 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -915,10 +916,10 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -929,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -952,13 +953,13 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -974,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>

--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1F455E17-C5B2-46FA-B26D-55A03271BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7CA1D9E5-70E4-4BF2-B9C9-91D844E05DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="python DS" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="LinkedList" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:T17"/>
+  <oleSize ref="A1:T11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -708,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D74351-1698-4E40-8D8A-DE82F9A08259}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -812,7 +812,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3794892F-DAAB-400D-A0F2-C29B2BA0EC86}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1332eb67554a452f/Documents/DsAlgoTestNG/src/test/resources/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:801_{1F455E17-C5B2-46FA-B26D-55A03271BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E65A6E7F-3421-4053-BF5F-2C68DCBDF56D}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:801_{1F455E17-C5B2-46FA-B26D-55A03271BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E216375F-7FCA-45CD-9D9B-62F173303237}"/>
   <bookViews>
-    <workbookView xWindow="6291" yWindow="3026" windowWidth="26623" windowHeight="10551" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
+    <workbookView xWindow="6291" yWindow="3026" windowWidth="26623" windowHeight="10551" activeTab="5" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="python DS" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Login" sheetId="3" r:id="rId3"/>
     <sheet name="Register" sheetId="4" r:id="rId4"/>
     <sheet name="LinkedList" sheetId="5" r:id="rId5"/>
+    <sheet name="LoginValidData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>Code</t>
   </si>
@@ -591,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F542CB85-55EF-446C-96FE-6338DCB949D1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -986,4 +987,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8939E-08F6-4761-981C-885093E6F4D2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3EFF30CB-6268-4D9D-854D-D034E19199E3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7CA1D9E5-70E4-4BF2-B9C9-91D844E05DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloss\src\DsAlgoTestNG\src\test\resources\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833AC713-F0EC-4D09-B9B1-84581E52DFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
+    <workbookView xWindow="3855" yWindow="855" windowWidth="18000" windowHeight="9150" firstSheet="1" activeTab="5" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="python DS" sheetId="1" r:id="rId1"/>
@@ -13,9 +18,9 @@
     <sheet name="Login" sheetId="3" r:id="rId3"/>
     <sheet name="Register" sheetId="4" r:id="rId4"/>
     <sheet name="LinkedList" sheetId="5" r:id="rId5"/>
+    <sheet name="LoginValidData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:T11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>Code</t>
   </si>
@@ -948,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3794892F-DAAB-400D-A0F2-C29B2BA0EC86}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -985,4 +990,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58629F28-0D5A-4D47-80F0-E5F6A098CF1D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D98370DB-EB4E-45D9-ACF0-C73FC2B0C2D7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1F455E17-C5B2-46FA-B26D-55A03271BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sruja\DsalgoLatestSrujana\DsAlgoTestNG\src\test\resources\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18C3CCD-EE72-4428-9563-84903820003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="python DS" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,6 @@
     <sheet name="LinkedList" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:T17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -262,7 +266,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -272,6 +276,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -292,9 +297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -332,7 +337,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -438,7 +443,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -580,7 +585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,37 +595,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F542CB85-55EF-446C-96FE-6338DCB949D1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -637,13 +642,13 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="227.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="227.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -659,7 +664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -667,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -675,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -683,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -691,7 +696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -708,18 +713,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D74351-1698-4E40-8D8A-DE82F9A08259}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -730,12 +735,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -743,7 +748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -751,7 +756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -762,7 +767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -773,7 +778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -784,7 +789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -815,15 +820,15 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="56.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -837,12 +842,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -850,7 +855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>22</v>
@@ -862,7 +867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -876,7 +881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -890,7 +895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -904,7 +909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -918,7 +923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -952,13 +957,13 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -974,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>

--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:801_{1F455E17-C5B2-46FA-B26D-55A03271BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E216375F-7FCA-45CD-9D9B-62F173303237}"/>
   <bookViews>
-    <workbookView xWindow="6291" yWindow="3026" windowWidth="26623" windowHeight="10551" activeTab="5" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="python DS" sheetId="1" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F542CB85-55EF-446C-96FE-6338DCB949D1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -993,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8939E-08F6-4761-981C-885093E6F4D2}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloss\src\DsAlgoTestNG\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833AC713-F0EC-4D09-B9B1-84581E52DFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B3B264-95DE-429E-9C98-FD57285CC5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="855" windowWidth="18000" windowHeight="9150" firstSheet="1" activeTab="5" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
   </bookViews>
@@ -816,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC47661-1FB8-408C-ACB6-62810351C78A}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -997,7 +997,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sruja\DsalgoLatestSrujana\DsAlgoTestNG\src\test\resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\DsAlgoTestNG-Sru\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E1011C-003A-4F49-97A3-4F4F658D384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED9344B-AEBE-4000-B3BF-26B5C228B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="5" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="6" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="python DS" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Register" sheetId="4" r:id="rId4"/>
     <sheet name="LinkedList" sheetId="5" r:id="rId5"/>
     <sheet name="LoginValidData" sheetId="6" r:id="rId6"/>
+    <sheet name="SearchArray" sheetId="7" r:id="rId7"/>
+    <sheet name="MaxConsecutive" sheetId="8" r:id="rId8"/>
+    <sheet name="FindEventNum" sheetId="9" r:id="rId9"/>
+    <sheet name="SquareSorted" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>Code</t>
   </si>
@@ -294,9 +298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -334,7 +338,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -440,7 +444,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,7 +586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -596,13 +600,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="43.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.4609375" customWidth="1"/>
+    <col min="2" max="2" width="43.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -618,12 +622,47 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD799DC1-36EF-4DAB-9021-32A3904FC6FB}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="227.4609375" customWidth="1"/>
+    <col min="2" max="2" width="33.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -636,16 +675,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="227.453125" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" customWidth="1"/>
+    <col min="1" max="1" width="227.4609375" customWidth="1"/>
+    <col min="2" max="2" width="33.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -661,7 +700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -669,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -677,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -685,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -693,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -714,14 +753,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.15234375" customWidth="1"/>
+    <col min="2" max="2" width="16.23046875" customWidth="1"/>
+    <col min="3" max="3" width="30.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -732,12 +771,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -745,7 +784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -753,7 +792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -764,7 +803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -775,7 +814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -786,7 +825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -817,15 +856,15 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
-    <col min="4" max="4" width="56.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.84375" customWidth="1"/>
+    <col min="2" max="2" width="18.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.53515625" customWidth="1"/>
+    <col min="4" max="4" width="56.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -839,12 +878,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -852,7 +891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>22</v>
@@ -864,7 +903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -878,7 +917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -892,7 +931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -906,7 +945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -920,7 +959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -954,13 +993,13 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -976,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -993,17 +1032,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1821E0E6-2D89-4C70-BB13-B2E19C8B4D3B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.15234375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1011,7 +1050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1025,4 +1064,127 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90497AF2-E708-4EF8-88BC-44CC3E058358}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="227.4609375" customWidth="1"/>
+    <col min="2" max="2" width="33.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E628353C-0FB5-4C6B-A5B8-33B4399CEF75}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="227.4609375" customWidth="1"/>
+    <col min="2" max="2" width="33.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426FD891-1E44-41A3-837D-774F075EB1D0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="227.4609375" customWidth="1"/>
+    <col min="2" max="2" width="33.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloss\src\DsAlgoTestNG\src\test\resources\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B3B264-95DE-429E-9C98-FD57285CC5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CA273FFA-EC54-4D36-B283-7060682D120C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="855" windowWidth="18000" windowHeight="9150" firstSheet="1" activeTab="5" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="595" activeTab="1" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="python DS" sheetId="1" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="LoginValidData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:A5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>Code</t>
   </si>
@@ -162,12 +158,6 @@
     <t>expected Outcome</t>
   </si>
   <si>
-    <t>popup error message containing Syntaxerror</t>
-  </si>
-  <si>
-    <t>the user is able to see the output in the console</t>
-  </si>
-  <si>
     <t>You are logged in</t>
   </si>
   <si>
@@ -184,6 +174,9 @@
   </si>
   <si>
     <t>New Account Created. You are logged in as Ninjasquad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup error message </t>
   </si>
 </sst>
 </file>
@@ -596,7 +589,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -626,7 +619,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3651A7-77E0-45BA-A8D2-DE2D88B80AFE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -732,12 +725,12 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -764,7 +757,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -786,7 +779,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,7 +790,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -839,12 +832,12 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -852,7 +845,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -864,7 +857,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -878,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -892,7 +885,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -906,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -920,7 +913,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,7 +927,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -996,7 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58629F28-0D5A-4D47-80F0-E5F6A098CF1D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1332eb67554a452f/Documents/DsAlgoTestNG/src/test/resources/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\DsAlgoTestNG-Sru\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:801_{1F455E17-C5B2-46FA-B26D-55A03271BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E216375F-7FCA-45CD-9D9B-62F173303237}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED9344B-AEBE-4000-B3BF-26B5C228B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="6" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="python DS" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Register" sheetId="4" r:id="rId4"/>
     <sheet name="LinkedList" sheetId="5" r:id="rId5"/>
     <sheet name="LoginValidData" sheetId="6" r:id="rId6"/>
+    <sheet name="SearchArray" sheetId="7" r:id="rId7"/>
+    <sheet name="MaxConsecutive" sheetId="8" r:id="rId8"/>
+    <sheet name="FindEventNum" sheetId="9" r:id="rId9"/>
+    <sheet name="SquareSorted" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>Code</t>
   </si>
@@ -592,14 +596,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F542CB85-55EF-446C-96FE-6338DCB949D1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.3828125" customWidth="1"/>
-    <col min="2" max="2" width="43.3828125" customWidth="1"/>
+    <col min="1" max="1" width="16.4609375" customWidth="1"/>
+    <col min="2" max="2" width="43.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -614,7 +618,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -622,8 +626,43 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD799DC1-36EF-4DAB-9021-32A3904FC6FB}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="227.4609375" customWidth="1"/>
+    <col min="2" max="2" width="33.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -636,12 +675,12 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="118.3828125" customWidth="1"/>
+    <col min="1" max="1" width="227.4609375" customWidth="1"/>
     <col min="2" max="2" width="33.53515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -717,8 +756,8 @@
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.15234375" customWidth="1"/>
-    <col min="2" max="2" width="16.3046875" customWidth="1"/>
-    <col min="3" max="3" width="30.3828125" customWidth="1"/>
+    <col min="2" max="2" width="16.23046875" customWidth="1"/>
+    <col min="3" max="3" width="30.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -820,7 +859,7 @@
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.84375" customWidth="1"/>
-    <col min="2" max="2" width="18.3828125" customWidth="1"/>
+    <col min="2" max="2" width="18.4609375" customWidth="1"/>
     <col min="3" max="3" width="15.53515625" customWidth="1"/>
     <col min="4" max="4" width="56.53515625" customWidth="1"/>
   </cols>
@@ -990,14 +1029,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8939E-08F6-4761-981C-885093E6F4D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1821E0E6-2D89-4C70-BB13-B2E19C8B4D3B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.15234375" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1017,8 +1060,131 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3EFF30CB-6268-4D9D-854D-D034E19199E3}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{61EFDAFC-A678-489E-B4EA-1225521BA180}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90497AF2-E708-4EF8-88BC-44CC3E058358}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="227.4609375" customWidth="1"/>
+    <col min="2" max="2" width="33.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E628353C-0FB5-4C6B-A5B8-33B4399CEF75}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="227.4609375" customWidth="1"/>
+    <col min="2" max="2" width="33.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426FD891-1E44-41A3-837D-774F075EB1D0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="227.4609375" customWidth="1"/>
+    <col min="2" max="2" width="33.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CA273FFA-EC54-4D36-B283-7060682D120C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloss\src\DsAlgoTestNG\src\test\resources\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C353F88-4724-43D1-8ED0-6C50AAB479CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="595" activeTab="1" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="595" firstSheet="3" activeTab="9" xr2:uid="{01914433-B6EF-45F7-9669-75209D66C2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="python DS" sheetId="1" r:id="rId1"/>
@@ -14,9 +19,12 @@
     <sheet name="Register" sheetId="4" r:id="rId4"/>
     <sheet name="LinkedList" sheetId="5" r:id="rId5"/>
     <sheet name="LoginValidData" sheetId="6" r:id="rId6"/>
+    <sheet name="SearchArray" sheetId="7" r:id="rId7"/>
+    <sheet name="MaxConsecutive" sheetId="8" r:id="rId8"/>
+    <sheet name="FindEventNum" sheetId="9" r:id="rId9"/>
+    <sheet name="SquareSorted" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:A5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>Code</t>
   </si>
@@ -260,7 +268,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -270,6 +278,24 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -589,16 +615,16 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -614,12 +640,47 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40008C19-A528-4DF8-B345-B3791521C78A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="238.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -631,17 +692,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3651A7-77E0-45BA-A8D2-DE2D88B80AFE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="227.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="227.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -657,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -665,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -673,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -681,7 +742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -689,7 +750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -710,14 +771,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -728,12 +789,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -741,7 +802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -749,7 +810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -760,7 +821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -771,7 +832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -782,7 +843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -813,15 +874,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="56.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -835,12 +896,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -848,7 +909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>22</v>
@@ -860,7 +921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -874,7 +935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -888,7 +949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -902,7 +963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -916,7 +977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -950,13 +1011,13 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -972,7 +1033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -993,13 +1054,13 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1007,7 +1068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1021,4 +1082,109 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E639FD27-9D48-4214-AD60-EE285653A6E7}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="124.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FEFFF8-EB46-4165-A1F0-6A7B741017EC}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="183.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53D79A4-04D9-4444-8377-B1589898357D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="119.90625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>